--- a/NFine.Web/Content/sql/项目管理.xlsx
+++ b/NFine.Web/Content/sql/项目管理.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04--项目代码\Git源码\lprebok\NFine\NFine.Web\Content\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A42D1C2-001A-4E50-98D4-2D2D458C76E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A96DE7-1BF9-4D4F-8B43-77B97E6868AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="11115" activeTab="1" xr2:uid="{59625B91-D16F-41B8-BF83-6FBF1409E22C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="11115" activeTab="3" xr2:uid="{59625B91-D16F-41B8-BF83-6FBF1409E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="MY_ProjInfo" sheetId="2" r:id="rId3"/>
-    <sheet name="MY_PeopleInfo" sheetId="3" r:id="rId4"/>
-    <sheet name="MY_ProjReqInfo" sheetId="4" r:id="rId5"/>
-    <sheet name="MY_ProjProgressMain" sheetId="5" r:id="rId6"/>
+    <sheet name="MY_NeedCheckProject" sheetId="6" r:id="rId2"/>
+    <sheet name="MY_ProBaseData" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="MY_ProjInfo" sheetId="2" r:id="rId5"/>
+    <sheet name="MY_PeopleInfo" sheetId="3" r:id="rId6"/>
+    <sheet name="MY_ProjReqInfo" sheetId="4" r:id="rId7"/>
+    <sheet name="MY_ProjProgressMain" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="110">
   <si>
     <t>项目信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +359,118 @@
   </si>
   <si>
     <t>周次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFatherCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FValue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FValue4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FValue5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码（主键）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础数据：MY_ProBaseData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分类：MY0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类别：MY_Base_PowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类别：MY_Base_PowerInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPowerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPowerCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限信息代码（要添加权限控制的需要关联）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49E94BF-8BFC-4890-970E-A6BBCC808899}">
   <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,11 +1110,574 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393F324-6321-4EAC-BF0F-D81F81630F1B}">
+  <dimension ref="A2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827A8D0-03DA-47FE-A7A7-A694296CD4EC}">
+  <dimension ref="A2:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B4DA8D-F298-4690-8A71-60FE6CFD85CB}">
   <dimension ref="A2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF88800C-33A9-495E-B062-7BF9017175AC}">
   <dimension ref="A3:C15"/>
   <sheetViews>
@@ -1362,7 +2039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD44956-9EC3-42FF-9FC4-E5578BC424B7}">
   <dimension ref="A2:C20"/>
   <sheetViews>
@@ -1590,7 +2267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07584C06-4E2F-4E20-A282-6E64FEABF7FE}">
   <dimension ref="A2:C19"/>
   <sheetViews>

--- a/NFine.Web/Content/sql/项目管理.xlsx
+++ b/NFine.Web/Content/sql/项目管理.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04--项目代码\Git源码\lprebok\NFine\NFine.Web\Content\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A96DE7-1BF9-4D4F-8B43-77B97E6868AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD414252-21CE-489D-9139-C07F900BD577}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="11115" activeTab="3" xr2:uid="{59625B91-D16F-41B8-BF83-6FBF1409E22C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="11115" firstSheet="2" activeTab="6" xr2:uid="{59625B91-D16F-41B8-BF83-6FBF1409E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="MY_NeedCheckProject" sheetId="6" r:id="rId2"/>
     <sheet name="MY_ProBaseData" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="MY_Base_PowerType" sheetId="8" r:id="rId4"/>
     <sheet name="MY_ProjInfo" sheetId="2" r:id="rId5"/>
     <sheet name="MY_PeopleInfo" sheetId="3" r:id="rId6"/>
     <sheet name="MY_ProjReqInfo" sheetId="4" r:id="rId7"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="117">
   <si>
     <t>项目信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,34 @@
   </si>
   <si>
     <t>权限信息代码（要添加权限控制的需要关联）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FProType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEndFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目是否结束（0:未结束；1:已结束：）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRecivePeople</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求对接人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1142,7 @@
   <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C21"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1355,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827A8D0-03DA-47FE-A7A7-A694296CD4EC}">
   <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1674,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B4DA8D-F298-4690-8A71-60FE6CFD85CB}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D33" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1749,122 +1777,144 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2041,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD44956-9EC3-42FF-9FC4-E5578BC424B7}">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2105,155 +2155,166 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
     </row>

--- a/NFine.Web/Content/sql/项目管理.xlsx
+++ b/NFine.Web/Content/sql/项目管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04--项目代码\Git源码\lprebok\NFine\NFine.Web\Content\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VSCode\nfine-NFine-master\NFine\project\NFine.Web\Content\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD414252-21CE-489D-9139-C07F900BD577}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59810277-DFA7-46BC-9B65-A9B8B5E59FCE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="11115" firstSheet="2" activeTab="6" xr2:uid="{59625B91-D16F-41B8-BF83-6FBF1409E22C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="11115" firstSheet="4" activeTab="7" xr2:uid="{59625B91-D16F-41B8-BF83-6FBF1409E22C}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="MY_ProjInfo" sheetId="2" r:id="rId5"/>
     <sheet name="MY_PeopleInfo" sheetId="3" r:id="rId6"/>
     <sheet name="MY_ProjReqInfo" sheetId="4" r:id="rId7"/>
-    <sheet name="MY_ProjProgressMain" sheetId="5" r:id="rId8"/>
+    <sheet name="MY_DataDictionary" sheetId="9" r:id="rId8"/>
+    <sheet name="MY_ProjProgressMain" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="136">
   <si>
     <t>项目信息表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,6 +500,82 @@
   </si>
   <si>
     <t>需求对接人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典：MY_DataDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FParentCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSortCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典：MY_DataDictInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FColCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FColName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FColType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2093,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD44956-9EC3-42FF-9FC4-E5578BC424B7}">
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2329,11 +2406,377 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5434A38F-D4BF-43EE-BDCF-3254C6A7AE60}">
+  <dimension ref="A2:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07584C06-4E2F-4E20-A282-6E64FEABF7FE}">
   <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A12" sqref="A12:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
